--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEACC05-DA56-4BF7-B2ED-40AF47882191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289CD411-B79D-402C-B58D-DCA81EFC878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6585" yWindow="1635" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8115" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="161">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=KC0oiuN_pLI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DwPRunm3n0Y</t>
   </si>
 </sst>
 </file>
@@ -576,15 +579,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -862,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1484,82 +1479,88 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>47</v>
       </c>

--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289CD411-B79D-402C-B58D-DCA81EFC878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A80539-C403-4B3A-9436-12621B6785EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="8115" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="163">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DwPRunm3n0Y</t>
+  </si>
+  <si>
+    <t>Millet keteltrein</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=psjqk3uLpNU</t>
   </si>
 </sst>
 </file>
@@ -855,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1675,34 +1681,45 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A80539-C403-4B3A-9436-12621B6785EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A850D-DBF9-4645-873A-3F2B2EE4DEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8115" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="7484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -517,6 +517,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=psjqk3uLpNU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Rz1VNSCt25s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TE2CaAJakRs</t>
   </si>
 </sst>
 </file>
@@ -863,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1234,8 +1240,14 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -1374,8 +1386,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">

--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A850D-DBF9-4645-873A-3F2B2EE4DEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BF342D-713A-4B24-9B52-531013EE3F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="7484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7380" yWindow="2640" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="166">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=TE2CaAJakRs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzhSTuUjdQI</t>
   </si>
 </sst>
 </file>
@@ -869,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1444,8 +1447,14 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">

--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BF342D-713A-4B24-9B52-531013EE3F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CCB56-060F-4F15-B503-0B853F3A352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7380" yWindow="2640" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6053" yWindow="6863" windowWidth="14401" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="166">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1061,11 +1061,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>144</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D17" t="s">
         <v>145</v>

--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CCB56-060F-4F15-B503-0B853F3A352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7AE9E6-B128-4EE4-A078-0E5FBD01A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6053" yWindow="6863" windowWidth="14401" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6398" yWindow="3067" windowWidth="14400" windowHeight="7486" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Binnen routes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$G$118</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -526,6 +527,69 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=RzhSTuUjdQI</t>
+  </si>
+  <si>
+    <t>Zuiden van Nederland</t>
+  </si>
+  <si>
+    <t>Sloe</t>
+  </si>
+  <si>
+    <t>Kfh</t>
+  </si>
+  <si>
+    <t>Kfh*</t>
+  </si>
+  <si>
+    <t>Rsd*</t>
+  </si>
+  <si>
+    <t>Zlw</t>
+  </si>
+  <si>
+    <t>Zuidwest Nederland</t>
+  </si>
+  <si>
+    <t>Hart van Nederland</t>
+  </si>
+  <si>
+    <t>Amfpon</t>
+  </si>
+  <si>
+    <t>Amf</t>
+  </si>
+  <si>
+    <t>Pon autotrein (BLG)</t>
+  </si>
+  <si>
+    <t>Pon autotrein (DBC)</t>
+  </si>
+  <si>
+    <t>Bnc</t>
+  </si>
+  <si>
+    <t>Lokale bediening</t>
+  </si>
+  <si>
+    <t>Groene hart</t>
+  </si>
+  <si>
+    <t>Apn</t>
+  </si>
+  <si>
+    <t>Gd*</t>
+  </si>
+  <si>
+    <t>Achterhoek</t>
+  </si>
+  <si>
+    <t>Aml? (Bh)</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Pinnow shuttle</t>
   </si>
 </sst>
 </file>
@@ -872,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1764,4 +1828,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107327DC-457E-451D-B70A-616BAE51CF3E}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7AE9E6-B128-4EE4-A078-0E5FBD01A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6786D-D6BC-4504-8F0A-A7AF0B87E8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6398" yWindow="3067" windowWidth="14400" windowHeight="7486" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="338" yWindow="4928" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Binnen routes" sheetId="2" r:id="rId2"/>
+    <sheet name="Lijst" sheetId="1" r:id="rId1"/>
+    <sheet name="Routes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$G$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lijst!$A$1:$G$118</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -590,6 +590,18 @@
   </si>
   <si>
     <t>Pinnow shuttle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JaRojXcVyW4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WeTHFxE66Gg</t>
+  </si>
+  <si>
+    <t>Zonnebloemolietrein (Pannon/VTG)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rQ8BAxC92jQ</t>
   </si>
 </sst>
 </file>
@@ -934,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1525,8 +1537,14 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -1610,8 +1628,14 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -1813,6 +1837,17 @@
         <v>162</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1834,7 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107327DC-457E-451D-B70A-616BAE51CF3E}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6786D-D6BC-4504-8F0A-A7AF0B87E8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D7F6A5-14C3-4479-BD99-0C0D985EEC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="4928" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1913" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lijst" sheetId="1" r:id="rId1"/>
     <sheet name="Routes" sheetId="2" r:id="rId2"/>
+    <sheet name="UC Moerdijk" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lijst!$A$1:$G$118</definedName>
@@ -28,8 +29,162 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{C3F87896-A51F-4CAC-8C02-794B97238C16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://sion-rail.nl/viewtopic.php?p=194872&amp;hilit=ddr#p194872</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{75370011-77D7-458E-93A3-7A6666C77DCC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://sion-rail.nl/viewtopic.php?p=196205&amp;hilit=wld#p196205</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{9E44AA07-2178-4B8E-A49A-0DF12CAF0E53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://sion-rail.nl/viewtopic.php?p=196283&amp;hilit=ddr#p196283</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{896A4B7C-20A6-4871-828C-99CE41ECF898}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://sion-rail.nl/viewtopic.php?p=198199&amp;hilit=mdk#p198199</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{1C2E70C1-C9CB-4CB5-A7F4-7F22E6F34417}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://sion-rail.nl/viewtopic.php?p=198805&amp;hilit=ddzd#p198805</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{478BD87F-CE5C-4C33-B569-7A401EC97078}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://sion-rail.nl/viewtopic.php?p=195760&amp;hilit=mdk#p195760</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="215">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -602,13 +757,85 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rQ8BAxC92jQ</t>
+  </si>
+  <si>
+    <t>Ddr</t>
+  </si>
+  <si>
+    <t>Ddzd</t>
+  </si>
+  <si>
+    <t>Wld</t>
+  </si>
+  <si>
+    <t>Mdbz</t>
+  </si>
+  <si>
+    <t>Kfhaz</t>
+  </si>
+  <si>
+    <t>Zwd</t>
+  </si>
+  <si>
+    <t>Grbr</t>
+  </si>
+  <si>
+    <t>11:24?</t>
+  </si>
+  <si>
+    <t>10:54?</t>
+  </si>
+  <si>
+    <t>15:27?</t>
+  </si>
+  <si>
+    <t>07:08?</t>
+  </si>
+  <si>
+    <t>14:07?</t>
+  </si>
+  <si>
+    <t>17:30?</t>
+  </si>
+  <si>
+    <t>16:16?</t>
+  </si>
+  <si>
+    <t>16:08?</t>
+  </si>
+  <si>
+    <t>16:10?</t>
+  </si>
+  <si>
+    <t>18:18?</t>
+  </si>
+  <si>
+    <t>Mdk</t>
+  </si>
+  <si>
+    <t>10:38?</t>
+  </si>
+  <si>
+    <t>12:52?</t>
+  </si>
+  <si>
+    <t>09:55?</t>
+  </si>
+  <si>
+    <t>15:07?</t>
+  </si>
+  <si>
+    <t>13:19?</t>
+  </si>
+  <si>
+    <t>18:34?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +858,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -660,11 +900,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -948,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
@@ -2003,4 +2244,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C05CB-6310-44C4-A6CB-F12F72BD2A4A}">
+  <dimension ref="A2:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.65277777777777779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="L17" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>198</v>
+      </c>
+      <c r="J18" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D7F6A5-14C3-4479-BD99-0C0D985EEC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005030FE-AB9E-4E0C-A278-ADE56C716BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="1913" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10313" yWindow="2625" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lijst" sheetId="1" r:id="rId1"/>
     <sheet name="Routes" sheetId="2" r:id="rId2"/>
-    <sheet name="UC Moerdijk" sheetId="3" r:id="rId3"/>
+    <sheet name="Goederenstops in routes" sheetId="4" r:id="rId3"/>
+    <sheet name="UC Moerdijk" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lijst!$A$1:$G$118</definedName>
@@ -184,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="326">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -829,13 +830,691 @@
   </si>
   <si>
     <t>18:34?</t>
+  </si>
+  <si>
+    <t>Trein</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Naar</t>
+  </si>
+  <si>
+    <t>Route(s)</t>
+  </si>
+  <si>
+    <t>Mvtw</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>ZWNL</t>
+  </si>
+  <si>
+    <t>Acht Shuttle</t>
+  </si>
+  <si>
+    <t>Craiova Ford Autotrein</t>
+  </si>
+  <si>
+    <t>ZvNL</t>
+  </si>
+  <si>
+    <t>Delfzijl Afvaltrein</t>
+  </si>
+  <si>
+    <t>Craiova (RO)</t>
+  </si>
+  <si>
+    <t>Delfzijl</t>
+  </si>
+  <si>
+    <t>Treviso (Bh)</t>
+  </si>
+  <si>
+    <t>NONL</t>
+  </si>
+  <si>
+    <t>Dijksgracht Afvoertrein</t>
+  </si>
+  <si>
+    <t>Awhv/Dgr</t>
+  </si>
+  <si>
+    <t>Rsd</t>
+  </si>
+  <si>
+    <t>HSL, ZWNL</t>
+  </si>
+  <si>
+    <t>Dillingen Ertstrein</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mvt, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sloe</t>
+    </r>
+  </si>
+  <si>
+    <t>Dillingen</t>
+  </si>
+  <si>
+    <t>Duisburg/Ludwigshafen Sh</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mvtw, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mdk</t>
+    </r>
+  </si>
+  <si>
+    <t>ZWNL, GH</t>
+  </si>
+  <si>
+    <t>Emmtec Keteltrein</t>
+  </si>
+  <si>
+    <t>Lutdsm</t>
+  </si>
+  <si>
+    <t>Emn</t>
+  </si>
+  <si>
+    <t>Olie, ATL</t>
+  </si>
+  <si>
+    <t>Frenkendorf/Wolfurt Sh</t>
+  </si>
+  <si>
+    <t>CH/A</t>
+  </si>
+  <si>
+    <t>Gefco Autotrein</t>
+  </si>
+  <si>
+    <t>Oosterhout</t>
+  </si>
+  <si>
+    <t>GXN Rotterdam Shuttle</t>
+  </si>
+  <si>
+    <t>Atw</t>
+  </si>
+  <si>
+    <r>
+      <t>Kfh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Mvt</t>
+    </r>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Zlw/Mdk</t>
+  </si>
+  <si>
+    <t>Katy Shuttle</t>
+  </si>
+  <si>
+    <t>PL (Bh)</t>
+  </si>
+  <si>
+    <r>
+      <t>Mdk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Bot</t>
+    </r>
+  </si>
+  <si>
+    <t>Kijfhoek-Beverwijk Staaltrein</t>
+  </si>
+  <si>
+    <t>Bvw</t>
+  </si>
+  <si>
+    <t>LPG-trein Sloe-Geleen</t>
+  </si>
+  <si>
+    <t>Menath Containertrein</t>
+  </si>
+  <si>
+    <t>Eemshaven</t>
+  </si>
+  <si>
+    <t>Moerdijk-Geleen Shuttle</t>
+  </si>
+  <si>
+    <t>Nosta/Hoyer Shuttle</t>
+  </si>
+  <si>
+    <t>Atw/D</t>
+  </si>
+  <si>
+    <t>Rsd, Sloe</t>
+  </si>
+  <si>
+    <t>Splitst/combineert te Rsd</t>
+  </si>
+  <si>
+    <t>Ostrava Kloentrein</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Pinnow Shuttle</t>
+  </si>
+  <si>
+    <t>Bh</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>Via NL bij wzh</t>
+  </si>
+  <si>
+    <t>Amf, Amfpon</t>
+  </si>
+  <si>
+    <t>HvNL</t>
+  </si>
+  <si>
+    <t>Pon autotrein (/DBC)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lutdsm via </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kfh</t>
+    </r>
+  </si>
+  <si>
+    <t>Port Shuttle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tbi, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>At</t>
+    </r>
+  </si>
+  <si>
+    <t>Raillogix Aluminiumtrein</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whz, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sloe, Kfh</t>
+    </r>
+  </si>
+  <si>
+    <t>Wissel tractie Amf?</t>
+  </si>
+  <si>
+    <t>Segrate Shuttle</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Sitfa Ford Autotrein</t>
+  </si>
+  <si>
+    <t>UC Amsterdam</t>
+  </si>
+  <si>
+    <t>Kfhn</t>
+  </si>
+  <si>
+    <t>Awhv</t>
+  </si>
+  <si>
+    <t>UC Antwerpen</t>
+  </si>
+  <si>
+    <t>Kfh, Sloe, …</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>UC Hagen-Vorhalle</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>NONL, ZWNL</t>
+  </si>
+  <si>
+    <t>UC Seelze</t>
+  </si>
+  <si>
+    <t>Coevorden Shuttle</t>
+  </si>
+  <si>
+    <r>
+      <t>Kfhn,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mvtw</t>
+    </r>
+  </si>
+  <si>
+    <t>ATL, ZWNL</t>
+  </si>
+  <si>
+    <t>Gd, Apn</t>
+  </si>
+  <si>
+    <t>Kfh (va Bh)</t>
+  </si>
+  <si>
+    <t>Hagen-Vorhalle Staaltrein</t>
+  </si>
+  <si>
+    <t>D-Kfh</t>
+  </si>
+  <si>
+    <t>Marl-Sinsen Kolentrein</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hrp via </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kfh</t>
+    </r>
+  </si>
+  <si>
+    <t>UC Zeebrugge</t>
+  </si>
+  <si>
+    <t>Opmerkingen</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>1600, 2200</t>
+  </si>
+  <si>
+    <t>1600, 189, 193</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1600, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6400, 186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 189, 193</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 189, 193</t>
+    </r>
+  </si>
+  <si>
+    <t>189, 193</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1600, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1206</t>
+    </r>
+  </si>
+  <si>
+    <t>1600, G2000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, G2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, HLR77</t>
+    </r>
+  </si>
+  <si>
+    <t>1600, 189</t>
+  </si>
+  <si>
+    <t>189, G2000</t>
+  </si>
+  <si>
+    <t>V100, 1600</t>
+  </si>
+  <si>
+    <t>1600, 193</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1206</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, G2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, V100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 193</t>
+    </r>
+  </si>
+  <si>
+    <t>6400, 186</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1600, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 189</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 189</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,8 +1551,16 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,6 +1570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,12 +1593,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2247,10 +2949,746 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424D9E4-184F-41C1-92EF-0B47DE6E2BC1}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="1">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C05CB-6310-44C4-A6CB-F12F72BD2A4A}">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:M12"/>
     </sheetView>
   </sheetViews>

--- a/goederentreinen.xlsx
+++ b/goederentreinen.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005030FE-AB9E-4E0C-A278-ADE56C716BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB6800E-017C-44D6-88DB-6158D40830B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10313" yWindow="2625" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lijst" sheetId="1" r:id="rId1"/>
     <sheet name="Routes" sheetId="2" r:id="rId2"/>
     <sheet name="Goederenstops in routes" sheetId="4" r:id="rId3"/>
     <sheet name="UC Moerdijk" sheetId="3" r:id="rId4"/>
+    <sheet name="Bestemmingen" sheetId="5" r:id="rId5"/>
+    <sheet name="VAM" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Bestemmingen!$A$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lijst!$A$1:$G$118</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -184,8 +187,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{D32E3F3C-8660-44F5-8B2B-4A49F5D4A226}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Last mile: ???</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="401">
   <si>
     <t>Katy shuttle</t>
   </si>
@@ -1507,6 +1544,459 @@
         <scheme val="minor"/>
       </rPr>
       <t>, 189</t>
+    </r>
+  </si>
+  <si>
+    <t>Locatie</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>NWNL</t>
+  </si>
+  <si>
+    <t>Hlm VAM</t>
+  </si>
+  <si>
+    <t>Mas</t>
+  </si>
+  <si>
+    <t>Crailoo</t>
+  </si>
+  <si>
+    <t>Amf Vlasakkers</t>
+  </si>
+  <si>
+    <t>Bnvc</t>
+  </si>
+  <si>
+    <t>Apd VAM</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Krag</t>
+  </si>
+  <si>
+    <t>Aml Dollegoor</t>
+  </si>
+  <si>
+    <t>OlieL, Vdl</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>Wijster VAM</t>
+  </si>
+  <si>
+    <t>Rds</t>
+  </si>
+  <si>
+    <t>Dz</t>
+  </si>
+  <si>
+    <t>Verkeer</t>
+  </si>
+  <si>
+    <t>6400, 2400</t>
+  </si>
+  <si>
+    <t>&lt;2000</t>
+  </si>
+  <si>
+    <t>&lt;2010</t>
+  </si>
+  <si>
+    <t>&lt;nu</t>
+  </si>
+  <si>
+    <t>1100, 2200, 2400</t>
+  </si>
+  <si>
+    <t>1100?</t>
+  </si>
+  <si>
+    <t>6400, 2200, Sik</t>
+  </si>
+  <si>
+    <t>Schuifwandw uit Gd, Kfh</t>
+  </si>
+  <si>
+    <t>Graan</t>
+  </si>
+  <si>
+    <t>Militair</t>
+  </si>
+  <si>
+    <t>1200, 1300, 1600, 6400</t>
+  </si>
+  <si>
+    <t>G1206, V100</t>
+  </si>
+  <si>
+    <t>Vuilnis</t>
+  </si>
+  <si>
+    <t>Auto's, schuifwandw</t>
+  </si>
+  <si>
+    <t>232, 189, 1600</t>
+  </si>
+  <si>
+    <t>G2000</t>
+  </si>
+  <si>
+    <t>Class 66, Class 58, G2000</t>
+  </si>
+  <si>
+    <t>V100</t>
+  </si>
+  <si>
+    <t>G1206</t>
+  </si>
+  <si>
+    <t>6400, G1206</t>
+  </si>
+  <si>
+    <t>6400, G1206, V100</t>
+  </si>
+  <si>
+    <t>Infra, vuilnis</t>
+  </si>
+  <si>
+    <t>6400, Class 66, Class 58, G2000</t>
+  </si>
+  <si>
+    <t>Ketels</t>
+  </si>
+  <si>
+    <t>G1206, G2000</t>
+  </si>
+  <si>
+    <t>t Harde</t>
+  </si>
+  <si>
+    <t>6400, G2000</t>
+  </si>
+  <si>
+    <t>6400, 2200, 1600</t>
+  </si>
+  <si>
+    <t>6400, 189, G1206, G2000</t>
+  </si>
+  <si>
+    <t>Aml Bedrijvenpark / Aadorp</t>
+  </si>
+  <si>
+    <t>6400, 6000, G2000, 600, V100</t>
+  </si>
+  <si>
+    <t>Grind, schroot</t>
+  </si>
+  <si>
+    <t>G1206, 600, V100, 6000</t>
+  </si>
+  <si>
+    <t>6400, HLD67</t>
+  </si>
+  <si>
+    <t>6400, 2200, 2400, HLD67, 6000, 600</t>
+  </si>
+  <si>
+    <t>6400, 2200, G1206, V100, Class 66, HLR77, 600</t>
+  </si>
+  <si>
+    <t>Lage Weide?</t>
+  </si>
+  <si>
+    <t>Schuifwandw, Infra</t>
+  </si>
+  <si>
+    <t>G1206, G2000, V100</t>
+  </si>
+  <si>
+    <t>Schuifwandw, Ketels Buizen, Gips, Kalk, Rongen, Huifw</t>
+  </si>
+  <si>
+    <t>6400, Class 66, V100, G2000</t>
+  </si>
+  <si>
+    <t>Ketels, Schuifwandw</t>
+  </si>
+  <si>
+    <t>V100, G1206, 6400</t>
+  </si>
+  <si>
+    <t>Coevorden?</t>
+  </si>
+  <si>
+    <t>Containers, Graan</t>
+  </si>
+  <si>
+    <t>1600, 186</t>
+  </si>
+  <si>
+    <t>6400, G1206, 193, G2000</t>
+  </si>
+  <si>
+    <t>G1206, 6400, V100, G2000</t>
+  </si>
+  <si>
+    <t>Schuifwandw, Infra, Vuilnis (&lt;2000)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6400, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>232</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 189, 193, 1600, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2400, 6400, G1206, 600, HLR77, HLD67, V100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1600, 186, 189, 6400, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+6700, Class 66, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>232</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, G1206, G2000, HLR77, HLD55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Walsdraad (Merkesteijn), Huifw, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Militair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Infra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schuifwandw, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Militair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Containers, Walsdraad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Militair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, vuilnis, schuifwandw, containers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Auto's, schuifwandw, Ketels, UC, vuilnis, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Militair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Kolen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Militair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plan U, Plan T, DM'90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Huifwagens BD</t>
     </r>
   </si>
 </sst>
@@ -1514,7 +2004,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1559,6 +2049,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1599,15 +2102,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2952,7 +3465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424D9E4-184F-41C1-92EF-0B47DE6E2BC1}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -3078,7 +3591,7 @@
       <c r="B7" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>236</v>
       </c>
       <c r="D7" t="s">
@@ -3106,20 +3619,20 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
         <v>6400</v>
       </c>
     </row>
@@ -3158,16 +3671,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>221</v>
       </c>
       <c r="F12">
@@ -3198,7 +3711,7 @@
       <c r="B14" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>258</v>
       </c>
       <c r="D14" t="s">
@@ -3249,7 +3762,7 @@
       <c r="B17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>258</v>
       </c>
       <c r="D17" t="s">
@@ -3266,7 +3779,7 @@
       <c r="B18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>238</v>
       </c>
       <c r="D18" t="s">
@@ -3277,16 +3790,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>221</v>
       </c>
       <c r="F19" t="s">
@@ -3294,16 +3807,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>302</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" t="s">
         <v>238</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
         <v>221</v>
       </c>
       <c r="F20" t="s">
@@ -3311,10 +3824,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>238</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3331,7 +3844,7 @@
       <c r="A22" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>242</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3345,16 +3858,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>221</v>
       </c>
       <c r="E23" t="s">
@@ -3371,7 +3884,7 @@
       <c r="B24" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>268</v>
       </c>
       <c r="D24" t="s">
@@ -3385,7 +3898,7 @@
       <c r="A25" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>270</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3402,22 +3915,22 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3547,7 +4060,7 @@
       <c r="B34" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>290</v>
       </c>
       <c r="D34" t="s">
@@ -3564,7 +4077,7 @@
       <c r="B35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>238</v>
       </c>
       <c r="D35" t="s">
@@ -3581,7 +4094,7 @@
       <c r="B36" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>238</v>
       </c>
       <c r="D36" t="s">
@@ -3592,20 +4105,20 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="8">
+      <c r="E37" s="5"/>
+      <c r="F37" s="6">
         <v>6400</v>
       </c>
     </row>
@@ -3627,10 +4140,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>238</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3644,25 +4157,25 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3864,4 +4377,449 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF7D737-3BF7-432D-817D-AC6C37225566}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.59765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="22.06640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.1328125" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E2" s="13">
+        <v>6400</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="13">
+        <v>6400</v>
+      </c>
+      <c r="F5" s="13">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="13">
+        <v>6400</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="13">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="13">
+        <v>6400</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" s="13">
+        <v>6400</v>
+      </c>
+      <c r="E10" s="13">
+        <v>6400</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" s="13">
+        <v>6400</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="13">
+        <v>6400</v>
+      </c>
+      <c r="E13" s="13">
+        <v>6400</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2400</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E17" s="13">
+        <v>6400</v>
+      </c>
+      <c r="F17" s="13">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21" s="13">
+        <v>6400</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D20" xr:uid="{4CF7D737-3BF7-432D-817D-AC6C37225566}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+      <sortCondition ref="B1:B20"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1EE52B-987D-4F7E-88CF-2ACC4B6E60B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>